--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>楊　徳泉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,52 @@
   </si>
   <si>
     <t>NRIお客様</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大野さんチーム</t>
+    <rPh sb="0" eb="2">
+      <t>ｵｳﾉ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川村</t>
+    <rPh sb="0" eb="2">
+      <t>ｶﾜﾑﾗ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡辺</t>
+    <rPh sb="0" eb="2">
+      <t>ﾜﾀﾅﾍﾞ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服部</t>
+    <rPh sb="0" eb="2">
+      <t>ﾊｯﾄﾘ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大野</t>
+    <rPh sb="0" eb="2">
+      <t>ｵｵﾉ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澤</t>
+    <rPh sb="0" eb="1">
+      <t>ｻﾜ</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,17 +178,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -151,7 +197,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -488,20 +534,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -512,7 +558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -520,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -528,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -539,7 +585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -550,7 +596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -558,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -566,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -574,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -582,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -590,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -598,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -606,7 +652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -614,7 +660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -622,12 +668,60 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>楊　徳泉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,22 @@
     <rPh sb="0" eb="1">
       <t>ｻﾜ</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水野　絢葵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mizuno@basenet.co.jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋　本玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiangbenling@basenet.co.jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,15 +218,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,17 +240,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -547,197 +586,237 @@
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B22" r:id="rId10"/>
+    <hyperlink ref="B23" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -174,19 +174,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mizuno@basenet.co.jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋　本玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiangbenling@basenet.co.jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>水野　絢葵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mizuno@basenet.co.jp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋　本玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiangbenling@basenet.co.jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,6 +284,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175581</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>108128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4167188"/>
+          <a:ext cx="5047619" cy="11276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,7 +619,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -783,10 +826,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -794,10 +837,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -818,5 +861,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -326,6 +326,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389943</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>94321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5481638" y="4333875"/>
+          <a:ext cx="4657143" cy="7428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -616,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -779,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -788,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -797,7 +835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -806,7 +844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -815,7 +853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -824,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -835,7 +873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -843,6 +881,16 @@
         <v>37</v>
       </c>
       <c r="C23" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -364,6 +364,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161448</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>105874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10354235" y="4598894"/>
+          <a:ext cx="3819048" cy="9133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -656,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,6 +402,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248011</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>7669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15777882"/>
+          <a:ext cx="4580952" cy="10361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -694,15 +732,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">

--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -432,6 +432,44 @@
         <a:xfrm>
           <a:off x="0" y="15777882"/>
           <a:ext cx="4580952" cy="10361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245216</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5558118" y="15942235"/>
+          <a:ext cx="4533333" cy="8466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
+++ b/010_事前準備/060_参加者管理/RPAコース参加者一覧.xlsx
@@ -470,6 +470,44 @@
         <a:xfrm>
           <a:off x="5558118" y="15942235"/>
           <a:ext cx="4533333" cy="8466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>273788</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>77591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11071412" y="15942235"/>
+          <a:ext cx="4561905" cy="8295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
